--- a/Import/Inventories/parent_location_template.xlsx
+++ b/Import/Inventories/parent_location_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\argip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D17A7A-76C8-4469-8203-B8405CD5D3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7B6CE5-D934-49EF-AF1B-8D2D96D7438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,6 +69,12 @@
     <t>Main Hospital</t>
   </si>
   <si>
+    <t>Internal Location</t>
+  </si>
+  <si>
+    <t>McHealthCare</t>
+  </si>
+  <si>
     <t>Clinic A</t>
   </si>
   <si>
@@ -124,12 +130,6 @@
   </si>
   <si>
     <t>Information Technology (IT)</t>
-  </si>
-  <si>
-    <t>Internal Location</t>
-  </si>
-  <si>
-    <t>McHealthCare</t>
   </si>
 </sst>
 </file>
@@ -521,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -535,7 +535,7 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,277 +549,226 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
